--- a/Extra_Question_6_analysis.xlsx
+++ b/Extra_Question_6_analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantanu Shinde\Desktop\Shantanu\Rutgers University\Fall 2021\Introduction to Artificial Intelligence\Assignment 1\Repeated_A_Star\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B1984B-7932-4B8C-9749-A70AA2171762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E51064-593E-455B-9FBF-7CA11F7932E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extra_Question_6_analysis" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,6 +593,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Density vs Average Trajectory Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -892,6 +917,7 @@
         <c:axId val="392315392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.32000000000000006"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -949,11 +975,13 @@
         <c:crossAx val="392312768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="392312768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1072,6 +1100,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Density vs Average(Length of Trajectory / Length of Shortest Path in Final Discovered Gridworld)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1371,6 +1424,7 @@
         <c:axId val="399337920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.32000000000000006"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1428,6 +1482,7 @@
         <c:crossAx val="399336280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="399336280"/>
@@ -1551,6 +1606,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Density vs Average (Length of Shortest Path in Final Discovered Gridworld / Length of Shortest Path in Full Gridworld)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1850,6 +1930,7 @@
         <c:axId val="399348088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.32000000000000006"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1907,6 +1988,7 @@
         <c:crossAx val="399349400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="399349400"/>
@@ -2030,6 +2112,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Density vs Average Number of Cells Processed by Repeated BFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2329,6 +2436,7 @@
         <c:axId val="398247280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.32000000000000006"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2386,6 +2494,7 @@
         <c:crossAx val="398248592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="398248592"/>
@@ -4759,15 +4868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5163,11 +5272,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="B1:B1048576 F1:F1048576"/>
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
